--- a/遗忘曲线.xlsx
+++ b/遗忘曲线.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\33_accumulate\duhongzhang.github.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{AAD0C3F5-E6F0-4685-A18E-DD24F11C7DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A9BB70-25A2-4F7B-BCBD-05D5A251FC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level one" sheetId="1" r:id="rId1"/>
@@ -87,14 +87,15 @@
 3.epoll&amp;poll&amp;select
 4.ptr&amp;=
 5.hashmap碰撞
-6.static_cast、reinterpret</t>
+6.static_cast、reinterpret
+7.lsof&amp;strace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,7 +503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -567,7 +568,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:11" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>44527</v>
       </c>
